--- a/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA2856-2B5B-4B1A-A482-E495DADCE958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D46DD-BA2D-4596-AFB2-B5A82A9C68CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1212" windowWidth="28056" windowHeight="13536" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18204" windowHeight="2544" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -844,12 +844,12 @@
     <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
     <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="252">
   <si>
     <t>システム名</t>
   </si>
@@ -903,31 +903,6 @@
   </si>
   <si>
     <t>社内管理システム機能</t>
-  </si>
-  <si>
-    <t>更新ボタンチェック</t>
-  </si>
-  <si>
-    <t>新規ボタンチェック</t>
-  </si>
-  <si>
-    <t>登録ボタンチェック</t>
-  </si>
-  <si>
-    <t>契約情報更新画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>契約情報リスト結果の「更新」ボタンをクリック</t>
@@ -1026,27 +1001,6 @@
     <t>« NULL »</t>
   </si>
   <si>
-    <t xml:space="preserve">	①「社員」項目のプルーダウンに社員IDのリストが表示される。参照　テストデータ_社員リスト　シート。
-	②空の社員リストが表示。
-	③新規ボタンが表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>検索</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -1055,44 +1009,6 @@
   </si>
   <si>
     <t>契約情報リストの表示</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>選択された社員の契約情報リストが画面に表示。
-参照：　テストデータ_契約情報リスト</t>
-    <rPh sb="34" eb="38">
-      <t>ケイヤクジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>契約情報リスト画面にて
-①「社員」項目に、任意選択する。　参照　”テストデータ_社員リスト”　シート
-②「検索」ボタンをクリック</t>
-    <rPh sb="0" eb="4">
-      <t>ケイヤクジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ケンサク</t>
-    </rPh>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1272,15 +1188,6 @@
     <t>　契約情報リスト画面</t>
   </si>
   <si>
-    <t>契約情報新規画面</t>
-  </si>
-  <si>
-    <t>リスト結果行のデータが表示される。</t>
-  </si>
-  <si>
-    <t>契約情報IDは採番され、画面に表示される。</t>
-  </si>
-  <si>
     <t xml:space="preserve">機能欄の「契約情報管理」ボタンをクリックする
 </t>
   </si>
@@ -1605,57 +1512,6 @@
   </si>
   <si>
     <t>●　status(進行ステータス）　1:進行中、9:終了(ラジオボタン）</t>
-  </si>
-  <si>
-    <t>画面変更、</t>
-  </si>
-  <si>
-    <t>更新可能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">契約情報リストの行ごとにある「更新ボタン」クリック
-</t>
-  </si>
-  <si>
-    <t>選択された契約IDの契約情報が更新される。</t>
-  </si>
-  <si>
-    <t>新規追加可能</t>
-  </si>
-  <si>
-    <t>採番された契約IDの契約情報を新追加されること。　</t>
-  </si>
-  <si>
-    <t>登録可能。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	①初期表示画面の左側にある「新規ボタン」クリック。
-	②契約リスト更新画面の左側にある「新規ボタン」クリック。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-①更新画面の右側にある登録ボタンクリック。
-②新規画面の右側にある登録ボタンクリック。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-①更新された契約IDの契約情報が登録されること。
-②新規追加された契約IDの契約情報が登録されること。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面変更、
-</t>
-  </si>
-  <si>
-    <t>画面に入力した値がDBに更新されること。
-参照　テストデータ_更新</t>
-  </si>
-  <si>
-    <t>①契約IDが採番される。
-②採番された契約IDの契約情報データが新規追加可能。
-③新規追加された値がDBにも新規追加。
-参照: テストデータ_新規</t>
   </si>
   <si>
     <t>画面</t>
@@ -1714,13 +1570,6 @@
 ⑭タイムレポートパスが空のときメッセージが表示。</t>
   </si>
   <si>
-    <t>4　　</t>
-  </si>
-  <si>
-    <t>①更新画面用エラーメッセージ表示
-②新規画面用エラーメッセージ表示</t>
-  </si>
-  <si>
     <t>No5</t>
   </si>
   <si>
@@ -1734,6 +1583,145 @@
   </si>
   <si>
     <t>対象テーブル</t>
+  </si>
+  <si>
+    <t>5　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新画面にてエラーメッセージ表示
+</t>
+  </si>
+  <si>
+    <t>単独エラーメッセージチェック</t>
+  </si>
+  <si>
+    <t>更新画面にてエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>単価が空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>単価が数値じゃないのときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>契約下限が空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>契約下限が数値じゃないのときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>控除単価が空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>控除単価が数値じゃないのときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>契約上限が空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>契約上限が数値じゃないのときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>残業単価が空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>残業単価が数値じゃないのときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>支払サイトが空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>支払サイトが数値じゃないのときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>タイムレポートパスが空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”単価を入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”単価に数値のみを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”契約下限を入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”契約下限に数値のみを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”控除単価を入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”控除単価に数値のみ入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”契約上限を入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”契約上限に数値のみを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”残業単価を入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”残業単価に数値のみを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”支払サイトを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”支払サイトに数値のみを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”タイムレポートパスを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>契約情報更新画面</t>
+  </si>
+  <si>
+    <t>リスト結果行のデータが契約情報更新画面に表示される。</t>
+  </si>
+  <si>
+    <t>契約情報IDは採番され、契約情報更新画面に表示される。</t>
+  </si>
+  <si>
+    <t>契約名所が空のときメッセージが表示。</t>
+  </si>
+  <si>
+    <t>”契約名称を入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	①「社員」項目のプルーダウンに社員IDのリストが表示される。参照：　テストデータ_社員リスト　シート。
+	②空の社員リストが表示。
+	③新規ボタンが表示される。</t>
+  </si>
+  <si>
+    <t>契約情報リスト画面にて
+①「社員」項目に、任意選択する。　参照：　”テストデータ_社員リスト”　シート
+②「検索」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>選択された社員の契約情報リストが画面に表示。
+参照：　"テストデータ_契約情報リスト"シート</t>
+  </si>
+  <si>
+    <t>更新画面に更新された値がDBにも更新されること。
+参照："テストデータ_更新"シート</t>
+  </si>
+  <si>
+    <t>新規追加された値がDBにも新規追加されること。
+参照: "テストデータ_新規"シート</t>
+  </si>
+  <si>
+    <t>①画面変更
+②更新画面項目にデータを新規追加する。
+参照："テストデータ_新規"シート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①画面変更
+②更新画面項目に値を更新する。
+参照："テストデータ_更新"シート
+</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2139,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2269,9 +2257,6 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2298,57 +2283,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
@@ -2402,9 +2336,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2432,7 +2363,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3096,16 +3078,16 @@
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
@@ -3158,20 +3140,20 @@
     <row r="18" spans="1:24" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="26"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="52"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
@@ -3182,20 +3164,20 @@
     <row r="19" spans="1:24" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="26"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="87"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
@@ -3205,18 +3187,18 @@
     </row>
     <row r="20" spans="1:24" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="26"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
@@ -3243,20 +3225,20 @@
       <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="54"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
@@ -3267,20 +3249,20 @@
     <row r="23" spans="1:24" s="18" customFormat="1">
       <c r="A23" s="26"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="62"/>
+      <c r="G23" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="93"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
@@ -3291,18 +3273,18 @@
     <row r="24" spans="1:24" s="18" customFormat="1">
       <c r="A24" s="26"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="65"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="96"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
@@ -3753,7 +3735,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3767,8 +3749,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="C2" s="86" t="s">
-        <v>233</v>
+      <c r="C2" s="68" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3789,8 +3771,8 @@
       <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>232</v>
+      <c r="C4" s="67" t="s">
+        <v>207</v>
       </c>
       <c r="D4" s="38">
         <v>44699</v>
@@ -3889,10 +3871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3908,8 +3890,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="94"/>
-      <c r="F1" s="92"/>
+      <c r="D1" s="75"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3"/>
@@ -3931,7 +3913,7 @@
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -3945,14 +3927,14 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>49</v>
+      <c r="D3" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3966,13 +3948,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>95</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>241</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -3987,168 +3969,400 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>96</v>
+        <v>240</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="404.4" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="91" t="s">
-        <v>228</v>
+    <row r="6" spans="1:9" ht="154.19999999999999" customHeight="1">
+      <c r="A6" s="69"/>
+      <c r="B6" s="58">
+        <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="154.19999999999999" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="76">
-        <v>5</v>
+    <row r="7" spans="1:9" ht="404.4" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="72" t="s">
+        <v>210</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="82.2" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="76">
+    <row r="8" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="72">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="97.8" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="6">
+    <row r="9" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="72">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="99.6" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="6">
+    <row r="10" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="72">
         <v>8</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>18</v>
+      <c r="C10" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+        <v>228</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="86.1" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="6">
+    <row r="11" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="72">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>19</v>
+      <c r="C11" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+        <v>216</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="86.1" customHeight="1">
-      <c r="B12" s="6">
+    <row r="12" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="72">
         <v>10</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>20</v>
+      <c r="C12" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="C13" s="48"/>
+    <row r="13" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="72">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="72">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="72">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="72">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="72">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A18" s="69"/>
+      <c r="B18" s="72">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A19" s="69"/>
+      <c r="B19" s="72">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="72">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="42.6" customHeight="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="72">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="178.2" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="58">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="97.8" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="C24" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14"/>
@@ -4171,598 +4385,598 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="43" customFormat="1">
+      <c r="A4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="44" customFormat="1">
-      <c r="A4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="F4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="G4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="H4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="I4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="J4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="K4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="L4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="M4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="N4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="O4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="P4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="Q4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="R4" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="69" t="s">
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" s="43" customFormat="1">
+      <c r="A5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="E5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="F5" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+    </row>
+    <row r="6" spans="1:20" s="43" customFormat="1">
+      <c r="A6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" s="43" customFormat="1">
+      <c r="A7" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-    </row>
-    <row r="5" spans="1:20" s="44" customFormat="1">
-      <c r="A5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="70" t="s">
+      <c r="P7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="70" t="s">
+      <c r="R7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-    </row>
-    <row r="6" spans="1:20" s="44" customFormat="1">
-      <c r="A6" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-    </row>
-    <row r="7" spans="1:20" s="44" customFormat="1">
-      <c r="A7" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-    </row>
-    <row r="8" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-    </row>
-    <row r="9" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-    </row>
-    <row r="10" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-    </row>
-    <row r="11" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-    </row>
-    <row r="12" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-    </row>
-    <row r="13" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-    </row>
-    <row r="14" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-    </row>
-    <row r="15" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-    </row>
-    <row r="16" spans="1:20" s="44" customFormat="1" ht="13.2">
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-    </row>
-    <row r="17" spans="2:20" s="44" customFormat="1" ht="13.2">
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-    </row>
-    <row r="18" spans="2:20" s="44" customFormat="1" ht="13.2">
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-    </row>
-    <row r="19" spans="2:20" s="44" customFormat="1" ht="13.2">
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-    </row>
-    <row r="20" spans="2:20" s="44" customFormat="1" ht="13.2">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-    </row>
-    <row r="21" spans="2:20" s="44" customFormat="1" ht="13.2">
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-    </row>
-    <row r="22" spans="2:20" s="44" customFormat="1" ht="13.2">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-    </row>
-    <row r="23" spans="2:20" s="44" customFormat="1" ht="13.2">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+    </row>
+    <row r="8" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+    </row>
+    <row r="9" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+    </row>
+    <row r="10" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+    </row>
+    <row r="11" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+    </row>
+    <row r="12" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+    </row>
+    <row r="13" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+    </row>
+    <row r="14" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+    </row>
+    <row r="15" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+    </row>
+    <row r="16" spans="1:20" s="43" customFormat="1" ht="13.2">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+    </row>
+    <row r="17" spans="2:20" s="43" customFormat="1" ht="13.2">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+    </row>
+    <row r="18" spans="2:20" s="43" customFormat="1" ht="13.2">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+    </row>
+    <row r="19" spans="2:20" s="43" customFormat="1" ht="13.2">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+    </row>
+    <row r="20" spans="2:20" s="43" customFormat="1" ht="13.2">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+    </row>
+    <row r="21" spans="2:20" s="43" customFormat="1" ht="13.2">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="2:20" s="43" customFormat="1" ht="13.2">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="2:20" s="43" customFormat="1" ht="13.2">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14"/>
@@ -4786,1348 +5000,1348 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="B2" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="43" customFormat="1">
+      <c r="A3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="44" customFormat="1">
-      <c r="A3" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="69" t="s">
+      <c r="J3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="K3" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="69" t="s">
+      <c r="L3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="M3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="N3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="O3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="P3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="Q3" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="R3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="43" customFormat="1">
+      <c r="A4" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="54">
+        <v>9</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="54">
+        <v>9</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="54">
+        <v>9</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="43" customFormat="1">
+      <c r="A5" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="54">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="54">
+        <v>2</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="54">
+        <v>4</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="43" customFormat="1" hidden="1">
+      <c r="A6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="54">
+        <v>80000</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="54">
+        <v>1050</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="54">
+        <v>1100</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="R6" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="43" customFormat="1" hidden="1">
+      <c r="B7" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="54">
+        <v>50</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="54">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="54">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="43" customFormat="1" hidden="1">
+      <c r="B8" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="54">
+        <v>600000</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="54">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="54">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="T8" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="43" customFormat="1" hidden="1">
+      <c r="B9" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="54">
+        <v>600000</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="54">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="54">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="43" customFormat="1" hidden="1">
+      <c r="B10" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="54">
+        <v>1</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="54">
+        <v>1</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="43" customFormat="1" hidden="1">
+      <c r="B11" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="54">
+        <v>1</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="54">
+        <v>1</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="54">
+        <v>1</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="43" customFormat="1" hidden="1">
+      <c r="B12" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="54">
+        <v>1</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="54">
+        <v>1</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="54">
+        <v>1</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="43" customFormat="1" ht="13.2" hidden="1">
+      <c r="B13" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="F13" s="45">
+        <v>12</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="45">
+        <v>12</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="45">
+        <v>12</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="54">
+        <v>80000</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="54">
+        <v>1050</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="54">
+        <v>1100</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="54">
+        <v>50</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="54">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="54">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M15" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="69" t="s">
+      <c r="Q15" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="54">
+        <v>600000</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="54">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="K16" s="54">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="R16" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="T16" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="54">
+        <v>600000</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="69" t="s">
+      <c r="I17" s="54">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="54">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="P17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="44" customFormat="1">
-      <c r="A4" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="72">
-        <v>9</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="72">
-        <v>9</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="72">
-        <v>9</v>
-      </c>
-      <c r="L4" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="R4" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="T4" s="70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="44" customFormat="1">
-      <c r="A5" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="72">
-        <v>50000</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="72">
-        <v>2</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="72">
-        <v>4</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" s="70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="44" customFormat="1" hidden="1">
-      <c r="A6" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="72">
-        <v>80000</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="72">
-        <v>1050</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="72">
-        <v>1100</v>
-      </c>
-      <c r="L6" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="N6" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="R6" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="T6" s="70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="44" customFormat="1" hidden="1">
-      <c r="B7" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="72">
-        <v>50</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="70" t="s">
+      <c r="S17" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="72">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="72">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="R7" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="44" customFormat="1" hidden="1">
-      <c r="B8" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="72">
-        <v>600000</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="70" t="s">
+      <c r="T17" s="52" t="s">
         <v>78</v>
-      </c>
-      <c r="I8" s="72">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="72">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="N8" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O8" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="T8" s="70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="44" customFormat="1" hidden="1">
-      <c r="B9" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="72">
-        <v>600000</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="72">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="72">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="N9" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="44" customFormat="1" hidden="1">
-      <c r="B10" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="72">
-        <v>1</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="72">
-        <v>1</v>
-      </c>
-      <c r="J10" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="72">
-        <v>1</v>
-      </c>
-      <c r="L10" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="44" customFormat="1" hidden="1">
-      <c r="B11" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="72">
-        <v>1</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="72">
-        <v>1</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="72">
-        <v>1</v>
-      </c>
-      <c r="L11" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="M11" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="T11" s="70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="44" customFormat="1" hidden="1">
-      <c r="B12" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="72">
-        <v>1</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="72">
-        <v>1</v>
-      </c>
-      <c r="J12" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="72">
-        <v>1</v>
-      </c>
-      <c r="L12" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="M12" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="N12" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="R12" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="T12" s="70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="44" customFormat="1" ht="13.2" hidden="1">
-      <c r="B13" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="46">
-        <v>12</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="46">
-        <v>12</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="46">
-        <v>12</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="72">
-        <v>80000</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="72">
-        <v>1050</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="72">
-        <v>1100</v>
-      </c>
-      <c r="L14" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="R14" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="T14" s="70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="72">
-        <v>50</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="72">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="72">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O15" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="R15" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="T15" s="70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="72">
-        <v>600000</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="72">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="72">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O16" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="R16" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="T16" s="70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="72">
-        <v>600000</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="72">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="72">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="N17" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="O17" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="R17" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="T17" s="70" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="54">
+        <v>1</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="54">
+        <v>1</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="54">
+        <v>1</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="54">
+        <v>1</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="54">
+        <v>1</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="54">
+        <v>1</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="54">
+        <v>1</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="54">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="54">
+        <v>1</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="B24" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="B25" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="D25" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="72">
-        <v>1</v>
-      </c>
-      <c r="G18" s="70" t="s">
+      <c r="E25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="72">
-        <v>1</v>
-      </c>
-      <c r="J18" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="72">
-        <v>1</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="N18" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="70" t="s">
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="T18" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="72">
-        <v>1</v>
-      </c>
-      <c r="G19" s="70" t="s">
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="N28" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="72">
-        <v>1</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="72">
-        <v>1</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="M19" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="N19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S19" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="T19" s="70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="72">
-        <v>1</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="72">
-        <v>1</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="72">
-        <v>1</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="N20" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="R20" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="S20" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="T20" s="70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="B24" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="B25" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="J26" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="K26" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="N27" s="71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="J28" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="K28" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="N28" s="71" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="75"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="57"/>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="57"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="75"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14"/>
@@ -6152,282 +6366,282 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="96" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="F4" s="47" t="s">
-        <v>92</v>
+      <c r="B4" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="F4" s="46" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>225</v>
+      <c r="B5" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="89" t="s">
+      <c r="B6" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="62">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="62">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="62">
+        <v>20</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="62">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="62">
+        <v>20</v>
+      </c>
+      <c r="F14" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="79" t="s">
+      <c r="G14" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="62">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="62">
+        <v>20210506</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="62">
+        <v>20210506</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="62">
+        <v>20230506</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="62">
+        <v>20230506</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="79" t="s">
+      <c r="C18" s="62">
+        <v>10</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="79" t="s">
+      <c r="C19" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="80">
-        <v>50000</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="80">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="79" t="s">
+      <c r="C20" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="79" t="s">
+      <c r="C21" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="80">
-        <v>20</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="80">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="80">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="80">
-        <v>20</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="80">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="80">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="80">
-        <v>20210506</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="80">
-        <v>20210506</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="79" t="s">
+      <c r="C22" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="80">
-        <v>20230506</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="80">
-        <v>20230506</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="80">
-        <v>10</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="79" t="s">
+      <c r="F22" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="F26" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="81" t="s">
+    </row>
+    <row r="27" spans="2:7">
+      <c r="F27" s="59" t="s">
         <v>190</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="F26" s="77" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="F27" s="77" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6440,7 +6654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928C0DE2-DB4B-4B2D-AA20-87E898F99C1D}">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6453,281 +6667,281 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>224</v>
+      <c r="B3" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="90" t="s">
+      <c r="C4" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="90" t="s">
-        <v>226</v>
+      <c r="H4" s="71" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="89" t="s">
+      <c r="B5" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="62">
+        <v>60000</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="62">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="62">
+        <v>0</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="62">
+        <v>0</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="62">
+        <v>0</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="79" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="79" t="s">
+      <c r="H13" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="62">
+        <v>0</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="62">
+        <v>20210101</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="62">
+        <v>20210101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="62">
+        <v>20240101</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="62">
+        <v>20240101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="79" t="s">
+      <c r="C17" s="62">
+        <v>20</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="79" t="s">
+      <c r="C18" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="80">
-        <v>60000</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="80">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="79" t="s">
+      <c r="C19" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="84">
+      <c r="C20" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="66">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="80">
-        <v>0</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="80">
-        <v>0</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="80">
-        <v>0</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="80">
-        <v>0</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="80">
-        <v>20210101</v>
-      </c>
-      <c r="G15" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="80">
-        <v>20210101</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="80">
-        <v>20240101</v>
-      </c>
-      <c r="G16" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="80">
-        <v>20240101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="80">
-        <v>20</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="80">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="79" t="s">
+    <row r="23" spans="2:8">
+      <c r="G23" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="79" t="s">
+    </row>
+    <row r="25" spans="2:8">
+      <c r="G25" s="59" t="s">
         <v>190</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="84" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="G23" s="77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="G25" s="77" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D46DD-BA2D-4596-AFB2-B5A82A9C68CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F604E3-05D1-4B4A-AC61-8DE39821440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18204" windowHeight="2544" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -1426,22 +1426,6 @@
     <t>全エラーメッセージチェック</t>
   </si>
   <si>
-    <t>①”契約名称を入力してください。”というメッセージが表示。
-②”単価を入力してください。”というメッセージが表示。
-③”単価に数値のみを入力してください。”というメッセージが表示。
-④”契約下限を入力してください。”というメッセージが表示。
-⑤”契約下限に数値のみを入力してください。”というメッセージが表示。
-⑥”控除単価を入力してください。”というメッセージが表示。
-⑦”控除単価に数値のみ入力してください。”というメッセージが表示。
-⑧”契約上限を入力してください。”というメッセージが表示。
-⑨”契約上限に数値のみを入力してください。”というメッセージが表示。
-⑩”残業単価を入力してください。”というメッセージが表示。
-⑪”残業単価に数値のみを入力してください。”というメッセージが表示。
-⑫”支払サイトを入力してください。”というメッセージが表示。
-⑬”支払サイトに数値のみを入力してください。”というメッセージが表示。
-⑭”タイムレポートパスを入力してください。”というメッセージが表示。</t>
-  </si>
-  <si>
     <t>契約名称</t>
   </si>
   <si>
@@ -1553,23 +1537,6 @@
     <t>新規追加後の値</t>
   </si>
   <si>
-    <t xml:space="preserve">
-①契約名所が空のときメッセージが表示。
-②単価が空のときメッセージが表示。
-③単価が数値じゃないのときメッセージが表示。
-④契約下限が空のときメッセージが表示。
-⑤契約下限が数値じゃないのときメッセージが表示。
-⑥控除単価が空のときメッセージが表示。
-⑦控除単価が数値じゃないのときメッセージが表示。
-⑧契約上限が空のときメッセージが表示。
-⑨契約上限が数値じゃないのときメッセージが表示。
-⑩残業単価が空のときメッセージが表示。
-⑪残業単価が数値じゃないのときメッセージが表示。
-⑫支払サイトが空のときメッセージが表示。
-⑬支払サイトが数値じゃないのときメッセージが表示。
-⑭タイムレポートパスが空のときメッセージが表示。</t>
-  </si>
-  <si>
     <t>No5</t>
   </si>
   <si>
@@ -1588,13 +1555,6 @@
     <t>5　</t>
   </si>
   <si>
-    <t xml:space="preserve">更新画面にてエラーメッセージ表示
-</t>
-  </si>
-  <si>
-    <t>単独エラーメッセージチェック</t>
-  </si>
-  <si>
     <t>更新画面にてエラーメッセージ表示</t>
   </si>
   <si>
@@ -1683,9 +1643,6 @@
   </si>
   <si>
     <t>契約情報IDは採番され、契約情報更新画面に表示される。</t>
-  </si>
-  <si>
-    <t>契約名所が空のときメッセージが表示。</t>
   </si>
   <si>
     <t>”契約名称を入力してください。”というメッセージが表示。</t>
@@ -1713,15 +1670,118 @@
 参照: "テストデータ_新規"シート</t>
   </si>
   <si>
-    <t>①画面変更
-②更新画面項目にデータを新規追加する。
-参照："テストデータ_新規"シート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①画面変更
-②更新画面項目に値を更新する。
+    <t xml:space="preserve">更新画面にてエラーメッセージ表示
+</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>更新画面にて、下記項目が空のままに、「登録」ボタンをクリック
+①契約名所
+②単価
+③契約下限
+④控除単価
+⑤契約上限
+⑥残業単価
+⑦支払サイト
+⑧タイムレポートパス</t>
+    <rPh sb="7" eb="9">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>契約更新画面の上の部分に下記メッセージが表示される：
+”契約名称を入力してください。”
+”単価を入力してください。”
+”単価に数値のみを入力してください。”
+”契約下限を入力してください。”
+”契約下限に数値のみを入力してください。”
+”控除単価を入力してください。”
+”控除単価に数値のみ入力してください。”
+”契約上限を入力してください。”
+”契約上限に数値のみを入力してください。”
+”残業単価を入力してください。”
+”残業単価に数値のみを入力してください。”
+”支払サイトを入力してください。”
+”支払サイトに数値のみを入力してください。”
+”タイムレポートパスを入力してください。”</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヤクコウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>エラーメッセージチェック</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>更新画面にて、契約名所が空の、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">契約情報更新画面にて、入力可能な項目を変更し、「登録」ボタンをクリック
 参照："テストデータ_更新"シート
 </t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>契約情報更新画面にて、入力可能な項目を入力し、「登録」ボタンをクリック
+参照："テストデータ_新規"シート</t>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
@@ -1729,34 +1789,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1810,21 +1870,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1846,7 +1906,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1882,7 +1942,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1890,7 +1950,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2133,13 +2193,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2417,10 +2477,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{AA6D4B92-5601-431E-90EF-0B456405D9A8}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="3" xr:uid="{7BFA7919-FAF9-4A8B-8FBD-E4DF656B0DDD}"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
@@ -2825,12 +2888,12 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.77734375" style="19"/>
-    <col min="22" max="22" width="5.77734375" style="20"/>
-    <col min="23" max="23" width="5.77734375" style="19"/>
-    <col min="24" max="16384" width="5.77734375" style="20"/>
+    <col min="1" max="21" width="5.75" style="19"/>
+    <col min="22" max="22" width="5.75" style="20"/>
+    <col min="23" max="23" width="5.75" style="19"/>
+    <col min="24" max="16384" width="5.75" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="17" customFormat="1">
@@ -3071,7 +3134,7 @@
       <c r="W14" s="25"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="1:24" s="18" customFormat="1" ht="23.4" customHeight="1">
+    <row r="15" spans="1:24" s="18" customFormat="1" ht="23.45" customHeight="1">
       <c r="A15" s="26"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -3221,7 +3284,7 @@
       <c r="W21" s="25"/>
       <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="1:24" s="18" customFormat="1" ht="13.2">
+    <row r="22" spans="1:24" s="18" customFormat="1" ht="13.5">
       <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="F22" s="25"/>
@@ -3250,7 +3313,7 @@
       <c r="A23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
@@ -3312,7 +3375,7 @@
       <c r="W25" s="25"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="1:24" s="18" customFormat="1" ht="13.2">
+    <row r="26" spans="1:24" s="18" customFormat="1" ht="13.5">
       <c r="A26" s="26"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -3725,7 +3788,7 @@
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3738,19 +3801,19 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="63.88671875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="63.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="C2" s="68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3772,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="38">
         <v>44699</v>
@@ -3874,18 +3937,19 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3934,7 +3998,7 @@
         <v>87</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3948,19 +4012,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="109.8" customHeight="1">
+    <row r="5" spans="1:9" ht="109.9" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="6">
         <v>3</v>
@@ -3969,19 +4033,19 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="154.19999999999999" customHeight="1">
+    <row r="6" spans="1:9" ht="154.15" customHeight="1">
       <c r="A6" s="69"/>
       <c r="B6" s="58">
         <v>4</v>
@@ -3993,10 +4057,10 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>14</v>
@@ -4004,22 +4068,22 @@
       <c r="H6" s="9"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="404.4" customHeight="1">
+    <row r="7" spans="1:9" ht="231" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>166</v>
+        <v>246</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -4031,16 +4095,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -4052,16 +4116,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -4073,16 +4137,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -4094,16 +4158,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -4115,16 +4179,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -4136,16 +4200,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -4157,16 +4221,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -4178,16 +4242,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -4199,16 +4263,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -4220,16 +4284,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4241,16 +4305,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -4262,16 +4326,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -4283,16 +4347,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -4304,22 +4368,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="178.2" customHeight="1">
+    <row r="22" spans="1:9" ht="178.15" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="58">
         <v>20</v>
@@ -4331,16 +4395,16 @@
         <v>81</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="97.8" customHeight="1">
+    <row r="23" spans="1:9" ht="97.9" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="6">
         <v>21</v>
@@ -4352,10 +4416,10 @@
         <v>83</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9"/>
@@ -4379,9 +4443,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
@@ -4389,7 +4453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1">
+    <row r="4" spans="1:20" s="43" customFormat="1" ht="15">
       <c r="A4" s="43" t="s">
         <v>47</v>
       </c>
@@ -4447,7 +4511,7 @@
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
     </row>
-    <row r="5" spans="1:20" s="43" customFormat="1">
+    <row r="5" spans="1:20" s="43" customFormat="1" ht="15">
       <c r="A5" s="43" t="s">
         <v>48</v>
       </c>
@@ -4505,7 +4569,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
     </row>
-    <row r="6" spans="1:20" s="43" customFormat="1">
+    <row r="6" spans="1:20" s="43" customFormat="1" ht="15">
       <c r="A6" s="43" t="s">
         <v>48</v>
       </c>
@@ -4563,9 +4627,9 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
     </row>
-    <row r="7" spans="1:20" s="43" customFormat="1">
+    <row r="7" spans="1:20" s="43" customFormat="1" ht="15">
       <c r="A7" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>104</v>
@@ -4621,7 +4685,7 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
     </row>
-    <row r="8" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="8" spans="1:20" s="43" customFormat="1">
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -4642,7 +4706,7 @@
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
     </row>
-    <row r="9" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="9" spans="1:20" s="43" customFormat="1">
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
@@ -4663,7 +4727,7 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
     </row>
-    <row r="10" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="10" spans="1:20" s="43" customFormat="1">
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -4684,7 +4748,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="11" spans="1:20" s="43" customFormat="1">
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
@@ -4705,7 +4769,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
     </row>
-    <row r="12" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="12" spans="1:20" s="43" customFormat="1">
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
@@ -4726,7 +4790,7 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
     </row>
-    <row r="13" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="13" spans="1:20" s="43" customFormat="1">
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -4747,7 +4811,7 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
     </row>
-    <row r="14" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="14" spans="1:20" s="43" customFormat="1">
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
@@ -4768,7 +4832,7 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
     </row>
-    <row r="15" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="15" spans="1:20" s="43" customFormat="1">
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -4789,7 +4853,7 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
     </row>
-    <row r="16" spans="1:20" s="43" customFormat="1" ht="13.2">
+    <row r="16" spans="1:20" s="43" customFormat="1">
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
@@ -4810,7 +4874,7 @@
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="43" customFormat="1" ht="13.2">
+    <row r="17" spans="2:20" s="43" customFormat="1">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -4831,7 +4895,7 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
     </row>
-    <row r="18" spans="2:20" s="43" customFormat="1" ht="13.2">
+    <row r="18" spans="2:20" s="43" customFormat="1">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -4852,7 +4916,7 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
     </row>
-    <row r="19" spans="2:20" s="43" customFormat="1" ht="13.2">
+    <row r="19" spans="2:20" s="43" customFormat="1">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
@@ -4873,7 +4937,7 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
     </row>
-    <row r="20" spans="2:20" s="43" customFormat="1" ht="13.2">
+    <row r="20" spans="2:20" s="43" customFormat="1">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
@@ -4894,7 +4958,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" s="43" customFormat="1" ht="13.2">
+    <row r="21" spans="2:20" s="43" customFormat="1">
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -4915,7 +4979,7 @@
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" spans="2:20" s="43" customFormat="1" ht="13.2">
+    <row r="22" spans="2:20" s="43" customFormat="1">
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
@@ -4936,7 +5000,7 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
     </row>
-    <row r="23" spans="2:20" s="43" customFormat="1" ht="13.2">
+    <row r="23" spans="2:20" s="43" customFormat="1">
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -4993,21 +5057,21 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" s="46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="43" customFormat="1">
+    <row r="3" spans="1:20" s="43" customFormat="1" ht="15">
       <c r="A3" s="43" t="s">
         <v>47</v>
       </c>
@@ -5069,9 +5133,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1">
+    <row r="4" spans="1:20" s="43" customFormat="1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>109</v>
@@ -5131,9 +5195,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="43" customFormat="1">
+    <row r="5" spans="1:20" s="43" customFormat="1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>116</v>
@@ -5193,7 +5257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="6" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
       <c r="A6" s="43" t="s">
         <v>49</v>
       </c>
@@ -5255,7 +5319,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="7" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
       <c r="B7" s="52" t="s">
         <v>125</v>
       </c>
@@ -5314,7 +5378,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="8" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
       <c r="B8" s="52" t="s">
         <v>130</v>
       </c>
@@ -5373,7 +5437,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="9" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
       <c r="B9" s="52" t="s">
         <v>133</v>
       </c>
@@ -5432,7 +5496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="10" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
       <c r="B10" s="52" t="s">
         <v>134</v>
       </c>
@@ -5491,7 +5555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="11" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
       <c r="B11" s="52" t="s">
         <v>138</v>
       </c>
@@ -5550,7 +5614,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="12" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
       <c r="B12" s="52" t="s">
         <v>142</v>
       </c>
@@ -5609,7 +5673,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="43" customFormat="1" ht="13.2" hidden="1">
+    <row r="13" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B13" s="44" t="s">
         <v>73</v>
       </c>
@@ -5668,9 +5732,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="15">
       <c r="A14" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>122</v>
@@ -5730,9 +5794,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="15">
       <c r="A15" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>125</v>
@@ -5792,9 +5856,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="15">
       <c r="A16" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>130</v>
@@ -5854,9 +5918,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="15">
       <c r="A17" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>133</v>
@@ -5916,9 +5980,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" ht="15">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>134</v>
@@ -5978,9 +6042,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" ht="15">
       <c r="A19" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>138</v>
@@ -6040,9 +6104,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="15">
       <c r="A20" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>142</v>
@@ -6104,13 +6168,13 @@
     </row>
     <row r="24" spans="1:20">
       <c r="B24" s="46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" ht="15">
       <c r="B25" s="51" t="s">
         <v>53</v>
       </c>
@@ -6151,9 +6215,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" ht="15">
       <c r="A26" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>111</v>
@@ -6195,9 +6259,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" ht="15">
       <c r="A27" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>158</v>
@@ -6239,9 +6303,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" ht="15">
       <c r="A28" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>162</v>
@@ -6283,7 +6347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" ht="15">
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -6298,7 +6362,7 @@
       <c r="N33" s="55"/>
       <c r="O33" s="55"/>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" ht="15">
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
@@ -6313,7 +6377,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="57"/>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" ht="15">
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
@@ -6328,7 +6392,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="57"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" ht="15">
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
@@ -6354,20 +6418,20 @@
   <dimension ref="B4:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
       <c r="B4" s="77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="64"/>
       <c r="F4" s="46" t="s">
@@ -6379,18 +6443,18 @@
         <v>84</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="65" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>109</v>
@@ -6404,21 +6468,21 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>89</v>
@@ -6432,10 +6496,10 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>53</v>
@@ -6446,7 +6510,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="62">
         <v>50000</v>
@@ -6460,10 +6524,10 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>55</v>
@@ -6474,7 +6538,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="62">
         <v>20</v>
@@ -6488,7 +6552,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="62">
         <v>1000</v>
@@ -6502,7 +6566,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="62">
         <v>20</v>
@@ -6516,7 +6580,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="62">
         <v>1000</v>
@@ -6530,7 +6594,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="62">
         <v>20210506</v>
@@ -6544,7 +6608,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="62">
         <v>20230506</v>
@@ -6558,7 +6622,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="62">
         <v>10</v>
@@ -6572,10 +6636,10 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F19" s="61" t="s">
         <v>63</v>
@@ -6586,7 +6650,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>68</v>
@@ -6600,7 +6664,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>131</v>
@@ -6614,10 +6678,10 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>24</v>
@@ -6628,20 +6692,20 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="F26" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="F27" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6658,20 +6722,20 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6679,46 +6743,46 @@
         <v>7</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="71" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>99</v>
@@ -6732,10 +6796,10 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="61" t="s">
         <v>53</v>
@@ -6746,7 +6810,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="62">
         <v>60000</v>
@@ -6760,10 +6824,10 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="61" t="s">
         <v>55</v>
@@ -6774,7 +6838,7 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="62">
         <v>0</v>
@@ -6788,7 +6852,7 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="62">
         <v>0</v>
@@ -6802,7 +6866,7 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="62">
         <v>0</v>
@@ -6816,7 +6880,7 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="62">
         <v>0</v>
@@ -6830,7 +6894,7 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="62">
         <v>20210101</v>
@@ -6844,7 +6908,7 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="62">
         <v>20240101</v>
@@ -6858,7 +6922,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="62">
         <v>20</v>
@@ -6872,10 +6936,10 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>63</v>
@@ -6886,7 +6950,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="61" t="s">
         <v>68</v>
@@ -6900,7 +6964,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>131</v>
@@ -6914,10 +6978,10 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" s="61" t="s">
         <v>24</v>
@@ -6928,23 +6992,24 @@
     </row>
     <row r="23" spans="2:8">
       <c r="G23" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="G25" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F604E3-05D1-4B4A-AC61-8DE39821440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80BF5CF-E5FD-495F-ADFE-2C25FE4424CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="252">
   <si>
     <t>システム名</t>
   </si>
@@ -1552,51 +1552,9 @@
     <t>対象テーブル</t>
   </si>
   <si>
-    <t>5　</t>
-  </si>
-  <si>
     <t>更新画面にてエラーメッセージ表示</t>
   </si>
   <si>
-    <t>単価が空のときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>単価が数値じゃないのときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>契約下限が空のときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>契約下限が数値じゃないのときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>控除単価が空のときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>控除単価が数値じゃないのときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>契約上限が空のときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>契約上限が数値じゃないのときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>残業単価が空のときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>残業単価が数値じゃないのときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>支払サイトが空のときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>支払サイトが数値じゃないのときメッセージが表示。</t>
-  </si>
-  <si>
-    <t>タイムレポートパスが空のときメッセージが表示。</t>
-  </si>
-  <si>
     <t>”単価を入力してください。”というメッセージが表示。</t>
   </si>
   <si>
@@ -1610,9 +1568,6 @@
   </si>
   <si>
     <t>”控除単価を入力してください。”というメッセージが表示。</t>
-  </si>
-  <si>
-    <t>”控除単価に数値のみ入力してください。”というメッセージが表示。</t>
   </si>
   <si>
     <t>”契約上限を入力してください。”というメッセージが表示。</t>
@@ -1675,71 +1630,7 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>更新画面にて、下記項目が空のままに、「登録」ボタンをクリック
-①契約名所
-②単価
-③契約下限
-④控除単価
-⑤契約上限
-⑥残業単価
-⑦支払サイト
-⑧タイムレポートパス</t>
-    <rPh sb="7" eb="9">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>契約更新画面の上の部分に下記メッセージが表示される：
-”契約名称を入力してください。”
-”単価を入力してください。”
-”単価に数値のみを入力してください。”
-”契約下限を入力してください。”
-”契約下限に数値のみを入力してください。”
-”控除単価を入力してください。”
-”控除単価に数値のみ入力してください。”
-”契約上限を入力してください。”
-”契約上限に数値のみを入力してください。”
-”残業単価を入力してください。”
-”残業単価に数値のみを入力してください。”
-”支払サイトを入力してください。”
-”支払サイトに数値のみを入力してください。”
-”タイムレポートパスを入力してください。”</t>
-    <rPh sb="0" eb="4">
-      <t>ケイヤクコウシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>エラーメッセージチェック</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>更新画面にて、契約名所が空の、「登録」ボタンをクリック</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1783,40 +1674,110 @@
     </rPh>
     <phoneticPr fontId="14"/>
   </si>
+  <si>
+    <t>契約更新画面の上の部分に下記メッセージが表示される：
+”契約名称を入力してください。”
+”単価を入力してください。”
+”契約下限を入力してください。”
+”控除単価を入力してください。”
+”契約上限を入力してください。”
+”残業単価を入力してください。”
+”支払サイトを入力してください。”
+”タイムレポートパスを入力してください。”</t>
+  </si>
+  <si>
+    <t>更新画面にて、下記項目が空のままに、「登録」ボタンをクリック
+①契約名所
+②単価
+③契約下限
+④控除単価
+⑤契約上限
+⑥残業単価
+⑦支払サイト
+⑧タイムレポートパス</t>
+  </si>
+  <si>
+    <t>更新画面にて、契約名所が空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、単価が空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、契約下限が空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、控除単価が空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、契約上限が空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、残業単価が空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、支払サイトが空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、タイムレポートパスが空のままに、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、単価の値が数値以外入力して、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、契約下限の値が数値以外入力して、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、控除単価の値が数値以外入力して、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>更新画面にて、契約上限の値が数値以外入力して、「登録」ボタンをクリック。</t>
+  </si>
+  <si>
+    <t>更新画面にて、残業単価の値が数値以外入力して、「登録」ボタンをクリック。</t>
+  </si>
+  <si>
+    <t>エラーメッセージチェック</t>
+  </si>
+  <si>
+    <t>更新画面にて、支払サイトの値が数値以外入力して、「登録」ボタンをクリック。</t>
+  </si>
+  <si>
+    <t>”控除単価に数値のみを入力してください。”というメッセージが表示。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1870,21 +1831,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1906,7 +1867,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1942,7 +1903,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1950,7 +1911,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2193,13 +2154,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2360,9 +2321,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2393,18 +2351,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2423,6 +2375,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2477,13 +2432,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{AA6D4B92-5601-431E-90EF-0B456405D9A8}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="3" xr:uid="{7BFA7919-FAF9-4A8B-8FBD-E4DF656B0DDD}"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
@@ -2888,12 +2840,12 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.75" style="19"/>
-    <col min="22" max="22" width="5.75" style="20"/>
-    <col min="23" max="23" width="5.75" style="19"/>
-    <col min="24" max="16384" width="5.75" style="20"/>
+    <col min="1" max="21" width="5.77734375" style="19"/>
+    <col min="22" max="22" width="5.77734375" style="20"/>
+    <col min="23" max="23" width="5.77734375" style="19"/>
+    <col min="24" max="16384" width="5.77734375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="17" customFormat="1">
@@ -3134,23 +3086,23 @@
       <c r="W14" s="25"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="1:24" s="18" customFormat="1" ht="23.45" customHeight="1">
+    <row r="15" spans="1:24" s="18" customFormat="1" ht="23.4" customHeight="1">
       <c r="A15" s="26"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
@@ -3203,20 +3155,20 @@
     <row r="18" spans="1:24" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="26"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="80"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
@@ -3227,20 +3179,20 @@
     <row r="19" spans="1:24" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="26"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="85"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
@@ -3250,18 +3202,18 @@
     </row>
     <row r="20" spans="1:24" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="26"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
@@ -3284,24 +3236,24 @@
       <c r="W21" s="25"/>
       <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="1:24" s="18" customFormat="1" ht="13.5">
+    <row r="22" spans="1:24" s="18" customFormat="1" ht="13.2">
       <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="84"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
@@ -3312,20 +3264,20 @@
     <row r="23" spans="1:24" s="18" customFormat="1">
       <c r="A23" s="26"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="91" t="s">
+      <c r="G23" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="93"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
@@ -3336,18 +3288,18 @@
     <row r="24" spans="1:24" s="18" customFormat="1">
       <c r="A24" s="26"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
@@ -3375,7 +3327,7 @@
       <c r="W25" s="25"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="1:24" s="18" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="18" customFormat="1" ht="13.2">
       <c r="A26" s="26"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -3788,7 +3740,7 @@
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3801,18 +3753,18 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="63.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="63.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3834,7 +3786,7 @@
       <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="66" t="s">
         <v>205</v>
       </c>
       <c r="D4" s="38">
@@ -3937,25 +3889,25 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="75"/>
-      <c r="F1" s="73"/>
+      <c r="D1" s="72"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3"/>
@@ -3991,14 +3943,14 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="75" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -4012,20 +3964,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="109.9" customHeight="1">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:9" ht="109.95" customHeight="1">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -4033,21 +3984,20 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="154.15" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="58">
+    <row r="6" spans="1:9" ht="154.19999999999999" customHeight="1">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4057,10 +4007,10 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>14</v>
@@ -4069,323 +4019,307 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="231" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="72" t="s">
-        <v>208</v>
+      <c r="B7" s="6">
+        <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="97" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>234</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="72">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="72">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="72">
+      <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="72">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="72">
+      <c r="B13" s="6">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="72">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="72">
+      <c r="B15" s="6">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="72">
+      <c r="B16" s="6">
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72">
+    <row r="17" spans="2:9" ht="42.6" customHeight="1">
+      <c r="B17" s="6">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="72">
+    <row r="18" spans="2:9" ht="42.6" customHeight="1">
+      <c r="B18" s="6">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72">
+    <row r="19" spans="2:9" ht="42.6" customHeight="1">
+      <c r="B19" s="6">
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="72">
+    <row r="20" spans="2:9" ht="42.6" customHeight="1">
+      <c r="B20" s="6">
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="42.6" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="72">
+    <row r="21" spans="2:9" ht="42.6" customHeight="1">
+      <c r="B21" s="6">
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="178.15" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="58">
+    <row r="22" spans="2:9" ht="76.8" customHeight="1">
+      <c r="B22" s="6">
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -4395,17 +4329,16 @@
         <v>81</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="97.9" customHeight="1">
-      <c r="A23" s="69"/>
+    <row r="23" spans="2:9" ht="97.95" customHeight="1">
       <c r="B23" s="6">
         <v>21</v>
       </c>
@@ -4416,16 +4349,16 @@
         <v>83</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="2:9">
       <c r="C24" s="47"/>
     </row>
   </sheetData>
@@ -4443,9 +4376,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
@@ -4453,7 +4386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1" ht="15">
+    <row r="4" spans="1:20" s="43" customFormat="1">
       <c r="A4" s="43" t="s">
         <v>47</v>
       </c>
@@ -4511,7 +4444,7 @@
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
     </row>
-    <row r="5" spans="1:20" s="43" customFormat="1" ht="15">
+    <row r="5" spans="1:20" s="43" customFormat="1">
       <c r="A5" s="43" t="s">
         <v>48</v>
       </c>
@@ -4569,7 +4502,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
     </row>
-    <row r="6" spans="1:20" s="43" customFormat="1" ht="15">
+    <row r="6" spans="1:20" s="43" customFormat="1">
       <c r="A6" s="43" t="s">
         <v>48</v>
       </c>
@@ -4627,7 +4560,7 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
     </row>
-    <row r="7" spans="1:20" s="43" customFormat="1" ht="15">
+    <row r="7" spans="1:20" s="43" customFormat="1">
       <c r="A7" s="43" t="s">
         <v>204</v>
       </c>
@@ -4685,7 +4618,7 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
     </row>
-    <row r="8" spans="1:20" s="43" customFormat="1">
+    <row r="8" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -4706,7 +4639,7 @@
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
     </row>
-    <row r="9" spans="1:20" s="43" customFormat="1">
+    <row r="9" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
@@ -4727,7 +4660,7 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
     </row>
-    <row r="10" spans="1:20" s="43" customFormat="1">
+    <row r="10" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -4748,7 +4681,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="1:20" s="43" customFormat="1">
+    <row r="11" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
@@ -4769,7 +4702,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
     </row>
-    <row r="12" spans="1:20" s="43" customFormat="1">
+    <row r="12" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
@@ -4790,7 +4723,7 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
     </row>
-    <row r="13" spans="1:20" s="43" customFormat="1">
+    <row r="13" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -4811,7 +4744,7 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
     </row>
-    <row r="14" spans="1:20" s="43" customFormat="1">
+    <row r="14" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
@@ -4832,7 +4765,7 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
     </row>
-    <row r="15" spans="1:20" s="43" customFormat="1">
+    <row r="15" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -4853,7 +4786,7 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
     </row>
-    <row r="16" spans="1:20" s="43" customFormat="1">
+    <row r="16" spans="1:20" s="43" customFormat="1" ht="13.2">
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
@@ -4874,7 +4807,7 @@
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="43" customFormat="1">
+    <row r="17" spans="2:20" s="43" customFormat="1" ht="13.2">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -4895,7 +4828,7 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
     </row>
-    <row r="18" spans="2:20" s="43" customFormat="1">
+    <row r="18" spans="2:20" s="43" customFormat="1" ht="13.2">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -4916,7 +4849,7 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
     </row>
-    <row r="19" spans="2:20" s="43" customFormat="1">
+    <row r="19" spans="2:20" s="43" customFormat="1" ht="13.2">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
@@ -4937,7 +4870,7 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
     </row>
-    <row r="20" spans="2:20" s="43" customFormat="1">
+    <row r="20" spans="2:20" s="43" customFormat="1" ht="13.2">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
@@ -4958,7 +4891,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" s="43" customFormat="1">
+    <row r="21" spans="2:20" s="43" customFormat="1" ht="13.2">
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -4979,7 +4912,7 @@
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" spans="2:20" s="43" customFormat="1">
+    <row r="22" spans="2:20" s="43" customFormat="1" ht="13.2">
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
@@ -5000,7 +4933,7 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
     </row>
-    <row r="23" spans="2:20" s="43" customFormat="1">
+    <row r="23" spans="2:20" s="43" customFormat="1" ht="13.2">
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -5057,9 +4990,9 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5071,7 +5004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="43" customFormat="1" ht="15">
+    <row r="3" spans="1:20" s="43" customFormat="1">
       <c r="A3" s="43" t="s">
         <v>47</v>
       </c>
@@ -5133,7 +5066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="43" customFormat="1" ht="15">
+    <row r="4" spans="1:20" s="43" customFormat="1">
       <c r="A4" s="43" t="s">
         <v>203</v>
       </c>
@@ -5195,7 +5128,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="43" customFormat="1" ht="15">
+    <row r="5" spans="1:20" s="43" customFormat="1">
       <c r="A5" s="43" t="s">
         <v>203</v>
       </c>
@@ -5257,7 +5190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
+    <row r="6" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="A6" s="43" t="s">
         <v>49</v>
       </c>
@@ -5319,7 +5252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
+    <row r="7" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B7" s="52" t="s">
         <v>125</v>
       </c>
@@ -5378,7 +5311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
+    <row r="8" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B8" s="52" t="s">
         <v>130</v>
       </c>
@@ -5437,7 +5370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
+    <row r="9" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B9" s="52" t="s">
         <v>133</v>
       </c>
@@ -5496,7 +5429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
+    <row r="10" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B10" s="52" t="s">
         <v>134</v>
       </c>
@@ -5555,7 +5488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
+    <row r="11" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B11" s="52" t="s">
         <v>138</v>
       </c>
@@ -5614,7 +5547,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="43" customFormat="1" ht="15" hidden="1">
+    <row r="12" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B12" s="52" t="s">
         <v>142</v>
       </c>
@@ -5673,7 +5606,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="43" customFormat="1" hidden="1">
+    <row r="13" spans="1:20" s="43" customFormat="1" ht="13.2" hidden="1">
       <c r="B13" s="44" t="s">
         <v>73</v>
       </c>
@@ -5732,8 +5665,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="58" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="52" t="s">
@@ -5794,8 +5727,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15">
-      <c r="A15" s="59" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="58" t="s">
         <v>203</v>
       </c>
       <c r="B15" s="52" t="s">
@@ -5856,8 +5789,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="58" t="s">
         <v>203</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -5918,8 +5851,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:20">
+      <c r="A17" s="58" t="s">
         <v>203</v>
       </c>
       <c r="B17" s="52" t="s">
@@ -5980,7 +5913,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -6042,8 +5975,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15">
-      <c r="A19" s="59" t="s">
+    <row r="19" spans="1:20">
+      <c r="A19" s="58" t="s">
         <v>203</v>
       </c>
       <c r="B19" s="52" t="s">
@@ -6104,8 +6037,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:20">
+      <c r="A20" s="58" t="s">
         <v>203</v>
       </c>
       <c r="B20" s="52" t="s">
@@ -6174,7 +6107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15">
+    <row r="25" spans="1:20">
       <c r="B25" s="51" t="s">
         <v>53</v>
       </c>
@@ -6215,7 +6148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15">
+    <row r="26" spans="1:20">
       <c r="A26" s="43" t="s">
         <v>203</v>
       </c>
@@ -6259,7 +6192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15">
+    <row r="27" spans="1:20">
       <c r="A27" s="43" t="s">
         <v>203</v>
       </c>
@@ -6303,8 +6236,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:20">
+      <c r="A28" s="58" t="s">
         <v>203</v>
       </c>
       <c r="B28" s="52" t="s">
@@ -6347,7 +6280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="3:15" ht="15">
+    <row r="33" spans="3:15">
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -6362,7 +6295,7 @@
       <c r="N33" s="55"/>
       <c r="O33" s="55"/>
     </row>
-    <row r="34" spans="3:15" ht="15">
+    <row r="34" spans="3:15">
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
@@ -6377,7 +6310,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="57"/>
     </row>
-    <row r="35" spans="3:15" ht="15">
+    <row r="35" spans="3:15">
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
@@ -6392,7 +6325,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="57"/>
     </row>
-    <row r="36" spans="3:15" ht="15">
+    <row r="36" spans="3:15">
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
@@ -6421,290 +6354,290 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="63"/>
       <c r="F4" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="68" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="60" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <v>50000</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="61">
         <v>50000</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="61">
         <v>20</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="61">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="61">
         <v>1000</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="61">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="61">
         <v>20</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="61">
         <v>1000</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="61">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="61">
         <v>20210506</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="61">
         <v>20210506</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="61">
         <v>20230506</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="61">
         <v>20230506</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="61">
         <v>10</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="58" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="58" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6722,289 +6655,289 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="73" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="69" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="60" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="60" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="60" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="61">
         <v>60000</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="61">
         <v>60000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="61">
         <v>0</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="61">
         <v>0</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="61">
         <v>0</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="61">
         <v>0</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="61">
         <v>20210101</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <v>20210101</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="61">
         <v>20240101</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <v>20240101</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="61">
         <v>20</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="61">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="58" t="s">
         <v>189</v>
       </c>
     </row>

--- a/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80BF5CF-E5FD-495F-ADFE-2C25FE4424CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5EDC09-E186-4CA6-98DC-3598222FF29E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -849,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="251">
   <si>
     <t>システム名</t>
   </si>
@@ -1516,13 +1516,7 @@
     <t>契約終了日</t>
   </si>
   <si>
-    <t>CT011</t>
-  </si>
-  <si>
     <t>はひほ</t>
-  </si>
-  <si>
-    <t>●CT011は採番された契約ID</t>
   </si>
   <si>
     <t>●CT001は選択された契約ID</t>
@@ -1743,6 +1737,9 @@
   </si>
   <si>
     <t>”控除単価に数値のみを入力してください。”というメッセージが表示。</t>
+  </si>
+  <si>
+    <t>採番された契約ID</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2834,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A7" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="12"/>
@@ -3265,7 +3262,7 @@
       <c r="A23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H23" s="90"/>
       <c r="I23" s="90"/>
@@ -3765,7 +3762,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="C2" s="67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3787,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D4" s="38">
         <v>44699</v>
@@ -3888,9 +3885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3950,7 +3947,7 @@
         <v>87</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3964,13 +3961,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -3984,13 +3981,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -4007,10 +4004,10 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>14</v>
@@ -4026,13 +4023,13 @@
         <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -4043,16 +4040,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -4063,16 +4060,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -4083,16 +4080,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -4103,16 +4100,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -4123,16 +4120,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -4143,16 +4140,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -4163,16 +4160,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -4183,16 +4180,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -4203,16 +4200,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -4223,16 +4220,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4243,16 +4240,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -4263,16 +4260,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -4283,16 +4280,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -4303,16 +4300,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -4329,10 +4326,10 @@
         <v>81</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9"/>
@@ -4349,10 +4346,10 @@
         <v>83</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9"/>
@@ -4373,7 +4370,7 @@
   <dimension ref="A2:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4562,7 +4559,7 @@
     </row>
     <row r="7" spans="1:20" s="43" customFormat="1">
       <c r="A7" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>104</v>
@@ -4987,7 +4984,7 @@
   <dimension ref="A2:T36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4998,7 +4995,7 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>50</v>
@@ -5068,7 +5065,7 @@
     </row>
     <row r="4" spans="1:20" s="43" customFormat="1">
       <c r="A4" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>109</v>
@@ -5130,7 +5127,7 @@
     </row>
     <row r="5" spans="1:20" s="43" customFormat="1">
       <c r="A5" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>116</v>
@@ -5667,7 +5664,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>122</v>
@@ -5729,7 +5726,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>125</v>
@@ -5791,7 +5788,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>130</v>
@@ -5853,7 +5850,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>133</v>
@@ -5915,7 +5912,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>134</v>
@@ -5977,7 +5974,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>138</v>
@@ -6039,7 +6036,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>142</v>
@@ -6101,7 +6098,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="B24" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>79</v>
@@ -6150,7 +6147,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>111</v>
@@ -6194,7 +6191,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>158</v>
@@ -6238,7 +6235,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>162</v>
@@ -6350,7 +6347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542AE971-0BB2-44C4-84DB-1529BD364C5E}">
   <dimension ref="B4:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -6382,7 +6379,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -6625,7 +6622,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="58" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" s="58" t="s">
         <v>188</v>
@@ -6651,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928C0DE2-DB4B-4B2D-AA20-87E898F99C1D}">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6668,7 +6665,7 @@
         <v>190</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6682,7 +6679,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -6690,13 +6687,13 @@
         <v>193</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="G5" s="68" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -6704,13 +6701,13 @@
         <v>166</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>194</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -6929,9 +6926,7 @@
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="58" t="s">
-        <v>198</v>
-      </c>
+      <c r="B24" s="58"/>
       <c r="G24" s="58" t="s">
         <v>187</v>
       </c>

--- a/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5EDC09-E186-4CA6-98DC-3598222FF29E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548D9A1-80CE-45BE-B083-5DAC09F598D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -849,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="252">
   <si>
     <t>システム名</t>
   </si>
@@ -891,9 +891,6 @@
   </si>
   <si>
     <t>初期表示</t>
-  </si>
-  <si>
-    <t>　</t>
   </si>
   <si>
     <t>契約情報リスト結合テスト項目</t>
@@ -1740,6 +1737,12 @@
   </si>
   <si>
     <t>採番された契約ID</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>✕</t>
   </si>
 </sst>
 </file>
@@ -3091,7 +3094,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="I15" s="77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
@@ -3116,7 +3119,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="K16" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="36"/>
       <c r="M16" s="25"/>
@@ -3177,7 +3180,7 @@
       <c r="A19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="84"/>
       <c r="I19" s="84"/>
@@ -3262,7 +3265,7 @@
       <c r="A23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H23" s="90"/>
       <c r="I23" s="90"/>
@@ -3762,7 +3765,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="C2" s="67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3784,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="38">
         <v>44699</v>
@@ -3885,9 +3888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3899,7 +3902,9 @@
     <col min="5" max="5" width="51.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3941,17 +3946,23 @@
         <v>13</v>
       </c>
       <c r="D3" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="75" t="s">
-        <v>87</v>
-      </c>
       <c r="F3" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
+        <v>222</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="132" customHeight="1">
       <c r="B4" s="6">
@@ -3961,17 +3972,23 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="109.95" customHeight="1">
       <c r="B5" s="6">
@@ -3981,379 +3998,491 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="154.19999999999999" customHeight="1">
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
+        <v>250</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="231" customHeight="1">
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="42.6" customHeight="1">
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
+        <v>221</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="42.6" customHeight="1">
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="42.6" customHeight="1">
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="42.6" customHeight="1">
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="42.6" customHeight="1">
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
+        <v>211</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="42.6" customHeight="1">
       <c r="B13" s="6">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="42.6" customHeight="1">
       <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="11"/>
+        <v>215</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="42.6" customHeight="1">
       <c r="B15" s="6">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
+        <v>217</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="42.6" customHeight="1">
       <c r="B16" s="6">
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
+        <v>207</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="42.6" customHeight="1">
       <c r="B17" s="6">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="42.6" customHeight="1">
       <c r="B18" s="6">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
+        <v>248</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="42.6" customHeight="1">
       <c r="B19" s="6">
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="42.6" customHeight="1">
       <c r="B20" s="6">
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
+        <v>214</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="42.6" customHeight="1">
       <c r="B21" s="6">
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
+        <v>216</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="76.8" customHeight="1">
       <c r="B22" s="6">
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="E22" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
+        <v>225</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="97.95" customHeight="1">
       <c r="B23" s="6">
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
+        <v>226</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="24" spans="2:9">
       <c r="C24" s="47"/>
@@ -4380,237 +4509,237 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="43" customFormat="1">
       <c r="A4" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="G4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="H4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="I4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="J4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="K4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="L4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="M4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="N4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="O4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="P4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="Q4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="R4" s="51" t="s">
         <v>36</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>37</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
     </row>
     <row r="5" spans="1:20" s="43" customFormat="1">
       <c r="A5" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="D5" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="I5" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" s="52" t="s">
+      <c r="P5" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="52" t="s">
-        <v>98</v>
-      </c>
       <c r="R5" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:20" s="43" customFormat="1">
       <c r="A6" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="I6" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="52" t="s">
+      <c r="P6" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>103</v>
-      </c>
       <c r="Q6" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:20" s="43" customFormat="1">
       <c r="A7" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="D7" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="52" t="s">
+      <c r="I7" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="52" t="s">
+      <c r="P7" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>108</v>
-      </c>
       <c r="Q7" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R7" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
@@ -4995,1286 +5124,1286 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="B2" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="43" customFormat="1">
       <c r="A3" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="I3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="J3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="K3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="L3" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="M3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="N3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="O3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="P3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="Q3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="51" t="s">
-        <v>65</v>
-      </c>
       <c r="R3" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="51" t="s">
         <v>36</v>
-      </c>
-      <c r="T3" s="51" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="43" customFormat="1">
       <c r="A4" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="D4" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>111</v>
       </c>
       <c r="F4" s="54">
         <v>9</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="54">
         <v>9</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4" s="54">
         <v>9</v>
       </c>
       <c r="L4" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="52" t="s">
-        <v>115</v>
-      </c>
       <c r="N4" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="S4" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="43" customFormat="1">
       <c r="A5" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>117</v>
-      </c>
       <c r="D5" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="54">
         <v>50000</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="54">
         <v>2</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="54">
         <v>4</v>
       </c>
       <c r="L5" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="O5" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="52" t="s">
-        <v>121</v>
-      </c>
       <c r="R5" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S5" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="A6" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>123</v>
-      </c>
       <c r="D6" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="54">
         <v>80000</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="54">
         <v>1050</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" s="54">
         <v>1100</v>
       </c>
       <c r="L6" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="N6" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="O6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="52" t="s">
-        <v>121</v>
-      </c>
       <c r="R6" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S6" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B7" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>126</v>
-      </c>
       <c r="D7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="54">
         <v>50</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="54">
         <v>1000</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="54">
         <v>1000</v>
       </c>
       <c r="L7" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="Q7" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="N7" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="52" t="s">
+      <c r="R7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="52" t="s">
+      <c r="S7" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="52" t="s">
-        <v>129</v>
-      </c>
       <c r="T7" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>131</v>
-      </c>
       <c r="D8" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="54">
         <v>600000</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="54">
         <v>1000</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8" s="54">
         <v>1000</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M8" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="N8" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="52" t="s">
+      <c r="R8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="52" t="s">
+      <c r="S8" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="52" t="s">
-        <v>129</v>
-      </c>
       <c r="T8" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B9" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="54">
         <v>600000</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="54">
         <v>1000</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" s="54">
         <v>1000</v>
       </c>
       <c r="L9" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="Q9" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="N9" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="O9" s="52" t="s">
+      <c r="R9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="S9" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T9" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B10" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>135</v>
-      </c>
       <c r="D10" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="54">
         <v>1</v>
       </c>
       <c r="G10" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I10" s="54">
         <v>1</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="54">
         <v>1</v>
       </c>
       <c r="L10" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="M10" s="52" t="s">
-        <v>137</v>
-      </c>
       <c r="N10" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="R10" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S10" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B11" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="54">
         <v>1</v>
       </c>
       <c r="G11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="54">
         <v>1</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="54">
         <v>1</v>
       </c>
       <c r="L11" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="N11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="N11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="52" t="s">
+      <c r="Q11" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="R11" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="43" customFormat="1" hidden="1">
       <c r="B12" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="54">
         <v>1</v>
       </c>
       <c r="G12" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I12" s="54">
         <v>1</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="54">
         <v>1</v>
       </c>
       <c r="L12" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M12" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="S12" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T12" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="43" customFormat="1" ht="13.2" hidden="1">
       <c r="B13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>74</v>
-      </c>
       <c r="D13" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="45">
         <v>12</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="45">
         <v>12</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" s="45">
         <v>12</v>
       </c>
       <c r="L13" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="44" t="s">
+      <c r="O13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="44" t="s">
+      <c r="Q13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="S13" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="Q13" s="44" t="s">
+      <c r="T13" s="44" t="s">
         <v>77</v>
-      </c>
-      <c r="R13" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="T13" s="44" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>123</v>
-      </c>
       <c r="D14" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="54">
         <v>80000</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="54">
         <v>1050</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K14" s="54">
         <v>1100</v>
       </c>
       <c r="L14" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="M14" s="52" t="s">
+      <c r="N14" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="52" t="s">
+      <c r="O14" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="52" t="s">
-        <v>121</v>
-      </c>
       <c r="R14" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S14" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>126</v>
-      </c>
       <c r="D15" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="54">
         <v>50</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="54">
         <v>1000</v>
       </c>
       <c r="J15" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="54">
         <v>1000</v>
       </c>
       <c r="L15" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="Q15" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="N15" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="52" t="s">
+      <c r="R15" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" s="52" t="s">
+      <c r="S15" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="R15" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>129</v>
-      </c>
       <c r="T15" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>131</v>
-      </c>
       <c r="D16" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="54">
         <v>600000</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="54">
         <v>1000</v>
       </c>
       <c r="J16" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="54">
         <v>1000</v>
       </c>
       <c r="L16" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="N16" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="O16" s="52" t="s">
+      <c r="R16" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="52" t="s">
+      <c r="S16" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="S16" s="52" t="s">
-        <v>129</v>
-      </c>
       <c r="T16" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="54">
         <v>600000</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="54">
         <v>1000</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="54">
         <v>1000</v>
       </c>
       <c r="L17" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="Q17" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="N17" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="52" t="s">
+      <c r="R17" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="S17" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>135</v>
-      </c>
       <c r="D18" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="54">
         <v>1</v>
       </c>
       <c r="G18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I18" s="54">
         <v>1</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="54">
         <v>1</v>
       </c>
       <c r="L18" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="52" t="s">
-        <v>137</v>
-      </c>
       <c r="N18" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="R18" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S18" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T18" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="54">
         <v>1</v>
       </c>
       <c r="G19" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I19" s="54">
         <v>1</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="54">
         <v>1</v>
       </c>
       <c r="L19" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="N19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="N19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="52" t="s">
+      <c r="Q19" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="R19" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S19" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T19" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="54">
         <v>1</v>
       </c>
       <c r="G20" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I20" s="54">
         <v>1</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="54">
         <v>1</v>
       </c>
       <c r="L20" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M20" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="R20" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="S20" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T20" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="B24" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="B25" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="E25" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="51" t="s">
+      <c r="H25" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="I25" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="51" t="s">
+      <c r="J25" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="K25" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="L25" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="L25" s="51" t="s">
-        <v>150</v>
-      </c>
       <c r="M25" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="51" t="s">
         <v>36</v>
-      </c>
-      <c r="N25" s="51" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="G26" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" s="52" t="s">
+      <c r="L26" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="52" t="s">
-        <v>157</v>
-      </c>
       <c r="N26" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="52" t="s">
+      <c r="I27" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="L27" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N27" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="52" t="s">
+      <c r="J28" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="L28" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M28" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N28" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="3:15">
@@ -6361,92 +6490,92 @@
   <sheetData>
     <row r="4" spans="2:7">
       <c r="B4" s="74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="63"/>
       <c r="F4" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="61">
         <v>50000</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="61">
         <v>50000</v>
@@ -6454,13 +6583,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="61">
         <v>0</v>
@@ -6468,13 +6597,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="61">
         <v>20</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="61">
         <v>20</v>
@@ -6482,13 +6611,13 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="61">
         <v>1000</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="61">
         <v>1000</v>
@@ -6496,13 +6625,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="61">
         <v>20</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="61">
         <v>20</v>
@@ -6510,13 +6639,13 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="61">
         <v>1000</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="61">
         <v>1000</v>
@@ -6524,13 +6653,13 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="61">
         <v>20210506</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="61">
         <v>20210506</v>
@@ -6538,13 +6667,13 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="61">
         <v>20230506</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="61">
         <v>20230506</v>
@@ -6552,13 +6681,13 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="61">
         <v>10</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="61">
         <v>10</v>
@@ -6566,13 +6695,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="61">
         <v>1</v>
@@ -6580,41 +6709,41 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="61">
         <v>1</v>
@@ -6622,20 +6751,20 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="F26" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="F27" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6648,8 +6777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928C0DE2-DB4B-4B2D-AA20-87E898F99C1D}">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6662,10 +6791,10 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6673,80 +6802,80 @@
         <v>7</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="61">
         <v>60000</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="61">
         <v>60000</v>
@@ -6754,13 +6883,13 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="65">
         <v>1</v>
@@ -6768,13 +6897,13 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="61">
         <v>0</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="61">
         <v>0</v>
@@ -6782,13 +6911,13 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="61">
         <v>0</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="61">
         <v>0</v>
@@ -6796,13 +6925,13 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="61">
         <v>0</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="61">
         <v>0</v>
@@ -6810,13 +6939,13 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="61">
         <v>0</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="61">
         <v>0</v>
@@ -6824,13 +6953,13 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="61">
         <v>20210101</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="61">
         <v>20210101</v>
@@ -6838,13 +6967,13 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="61">
         <v>20240101</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="61">
         <v>20240101</v>
@@ -6852,13 +6981,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="61">
         <v>20</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="61">
         <v>20</v>
@@ -6866,13 +6995,13 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="65">
         <v>1</v>
@@ -6880,41 +7009,41 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="65">
         <v>1</v>
@@ -6922,18 +7051,18 @@
     </row>
     <row r="23" spans="2:8">
       <c r="G23" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="58"/>
       <c r="G24" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="G25" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548D9A1-80CE-45BE-B083-5DAC09F598D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7558B1B5-CE48-4349-9DDF-B8AA89EBDC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -849,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="254">
   <si>
     <t>システム名</t>
   </si>
@@ -1743,6 +1743,12 @@
   </si>
   <si>
     <t>✕</t>
+  </si>
+  <si>
+    <t>１回目</t>
+  </si>
+  <si>
+    <t>２回目</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2166,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2431,6 +2437,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3886,11 +3901,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3904,14 +3919,27 @@
     <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="13.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="D1" s="72"/>
       <c r="F1" s="70"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -3928,7 +3956,7 @@
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="39" t="s">
@@ -3937,8 +3965,17 @@
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="132" customHeight="1">
+      <c r="J2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="132" customHeight="1">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -3963,8 +4000,11 @@
       <c r="I3" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="132" customHeight="1">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="132" customHeight="1">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -3989,8 +4029,11 @@
       <c r="I4" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="109.95" customHeight="1">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="109.95" customHeight="1">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -4015,8 +4058,11 @@
       <c r="I5" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="154.19999999999999" customHeight="1">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="154.19999999999999" customHeight="1">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -4041,8 +4087,11 @@
       <c r="I6" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="231" customHeight="1">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="231" customHeight="1">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -4067,8 +4116,11 @@
       <c r="I7" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="42.6" customHeight="1">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -4093,8 +4145,11 @@
       <c r="I8" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="42.6" customHeight="1">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -4119,8 +4174,11 @@
       <c r="I9" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="42.6" customHeight="1">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -4145,8 +4203,11 @@
       <c r="I10" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.6" customHeight="1">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -4171,8 +4232,11 @@
       <c r="I11" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="42.6" customHeight="1">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -4197,8 +4261,11 @@
       <c r="I12" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="42.6" customHeight="1">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -4223,8 +4290,11 @@
       <c r="I13" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="42.6" customHeight="1">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -4249,8 +4319,11 @@
       <c r="I14" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="42.6" customHeight="1">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -4275,8 +4348,11 @@
       <c r="I15" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="42.6" customHeight="1">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="42.6" customHeight="1">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -4301,8 +4377,11 @@
       <c r="I16" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="42.6" customHeight="1">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="2:12" ht="42.6" customHeight="1">
       <c r="B17" s="6">
         <v>15</v>
       </c>
@@ -4327,8 +4406,11 @@
       <c r="I17" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="42.6" customHeight="1">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" ht="42.6" customHeight="1">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -4353,8 +4435,11 @@
       <c r="I18" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="42.6" customHeight="1">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="2:12" ht="42.6" customHeight="1">
       <c r="B19" s="6">
         <v>17</v>
       </c>
@@ -4379,8 +4464,11 @@
       <c r="I19" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="42.6" customHeight="1">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="2:12" ht="42.6" customHeight="1">
       <c r="B20" s="6">
         <v>18</v>
       </c>
@@ -4405,8 +4493,11 @@
       <c r="I20" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="42.6" customHeight="1">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" ht="42.6" customHeight="1">
       <c r="B21" s="6">
         <v>19</v>
       </c>
@@ -4431,8 +4522,11 @@
       <c r="I21" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="76.8" customHeight="1">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="2:12" ht="76.8" customHeight="1">
       <c r="B22" s="6">
         <v>20</v>
       </c>
@@ -4457,8 +4551,11 @@
       <c r="I22" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="97.95" customHeight="1">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="2:12" ht="97.95" customHeight="1">
       <c r="B23" s="6">
         <v>21</v>
       </c>
@@ -4483,11 +4580,18 @@
       <c r="I23" s="11">
         <v>44704</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="2:12">
       <c r="C24" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/契約情報管理結合テスト_項目仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7558B1B5-CE48-4349-9DDF-B8AA89EBDC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABFCBF4-863E-44C0-A8A1-6C8412167327}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -849,7 +849,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="254">
   <si>
     <t>システム名</t>
   </si>
@@ -3905,7 +3905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4116,9 +4116,15 @@
       <c r="I7" s="11">
         <v>44704</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="11">
+        <v>44704</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="42.6" customHeight="1">
       <c r="B8" s="6">
